--- a/docentes/Torres Sánchez José Luis - Estadisticos 2020.xlsx
+++ b/docentes/Torres Sánchez José Luis - Estadisticos 2020.xlsx
@@ -594,16 +594,19 @@
         <v>39</v>
       </c>
       <c r="D2">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="E2">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>33.33</v>
+      </c>
+      <c r="H2">
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -617,16 +620,19 @@
         <v>39</v>
       </c>
       <c r="D3">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E3">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>30.77</v>
+      </c>
+      <c r="H3">
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -640,16 +646,19 @@
         <v>37</v>
       </c>
       <c r="D4">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E4">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>8.109999999999999</v>
+      </c>
+      <c r="H4">
+        <v>9.300000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -717,7 +726,7 @@
         <v>100</v>
       </c>
       <c r="H2">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -743,7 +752,7 @@
         <v>100</v>
       </c>
       <c r="H3">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -769,7 +778,7 @@
         <v>100</v>
       </c>
       <c r="H4">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/docentes/Torres Sánchez José Luis - Estadisticos 2020.xlsx
+++ b/docentes/Torres Sánchez José Luis - Estadisticos 2020.xlsx
@@ -594,19 +594,19 @@
         <v>39</v>
       </c>
       <c r="D2">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="G2">
-        <v>33.33</v>
+        <v>100</v>
       </c>
       <c r="H2">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -620,19 +620,19 @@
         <v>39</v>
       </c>
       <c r="D3">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G3">
-        <v>30.77</v>
+        <v>100</v>
       </c>
       <c r="H3">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -646,19 +646,19 @@
         <v>37</v>
       </c>
       <c r="D4">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="G4">
-        <v>8.109999999999999</v>
+        <v>100</v>
       </c>
       <c r="H4">
-        <v>9.300000000000001</v>
+        <v>8.6</v>
       </c>
     </row>
   </sheetData>
@@ -726,7 +726,7 @@
         <v>100</v>
       </c>
       <c r="H2">
-        <v>9.300000000000001</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -752,7 +752,7 @@
         <v>100</v>
       </c>
       <c r="H3">
-        <v>9.300000000000001</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -778,7 +778,7 @@
         <v>100</v>
       </c>
       <c r="H4">
-        <v>8.699999999999999</v>
+        <v>7.9</v>
       </c>
     </row>
   </sheetData>
